--- a/Testing_info.xlsx
+++ b/Testing_info.xlsx
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,9 @@
           <t>Married</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -767,7 +769,9 @@
           <t>Single</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -813,7 +817,9 @@
           <t>Married</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -859,7 +865,9 @@
           <t>Single</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -905,7 +913,9 @@
           <t>Married</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
